--- a/downloaded_files/GENS002_Lecture-35028.xlsx
+++ b/downloaded_files/GENS002_Lecture-35028.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -280,6 +280,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Khaled Hussein Nagar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240243</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد احمد التابعى عوض</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Mohamed Ahmed Eltabei Awad</x:t>
   </x:si>
   <x:si>
     <x:t>1200860</x:t>
@@ -530,7 +539,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -830,7 +839,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T44"/>
+  <x:dimension ref="A1:T45"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1815,7 +1824,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6660220255</x:v>
+        <x:v>45919.6302434375</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1847,7 +1856,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.5503096412</x:v>
+        <x:v>45906.6660220255</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1879,7 +1888,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4146840278</x:v>
+        <x:v>45906.5503096412</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1911,7 +1920,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45915.0139236458</x:v>
+        <x:v>45906.4146840278</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1943,7 +1952,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.4157328704</x:v>
+        <x:v>45915.0139236458</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1975,7 +1984,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6652256134</x:v>
+        <x:v>45906.4157328704</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2007,7 +2016,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.414850544</x:v>
+        <x:v>45906.6652256134</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2039,7 +2048,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45915.6440935185</x:v>
+        <x:v>45906.414850544</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2071,7 +2080,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.4321676736</x:v>
+        <x:v>45915.6440935185</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2103,7 +2112,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45915.0099014699</x:v>
+        <x:v>45906.4321676736</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2135,7 +2144,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.4143582176</x:v>
+        <x:v>45915.0099014699</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2167,7 +2176,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.6650042477</x:v>
+        <x:v>45906.4143582176</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2199,7 +2208,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.4150481481</x:v>
+        <x:v>45906.6650042477</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2231,7 +2240,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45915.0116396181</x:v>
+        <x:v>45906.4150481481</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2263,7 +2272,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45915.6443547801</x:v>
+        <x:v>45915.0116396181</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2280,6 +2289,38 @@
       <x:c r="R44" s="2" t="s"/>
       <x:c r="S44" s="2" t="s"/>
       <x:c r="T44" s="2" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:20">
+      <x:c r="A45" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D45" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="E45" s="3">
+        <x:v>45915.6443547801</x:v>
+      </x:c>
+      <x:c r="F45" s="2" t="s"/>
+      <x:c r="G45" s="2" t="s"/>
+      <x:c r="H45" s="2" t="s"/>
+      <x:c r="I45" s="2" t="s"/>
+      <x:c r="J45" s="2" t="s"/>
+      <x:c r="K45" s="2" t="s"/>
+      <x:c r="L45" s="2" t="s"/>
+      <x:c r="M45" s="2" t="s"/>
+      <x:c r="N45" s="2" t="s"/>
+      <x:c r="O45" s="2" t="s"/>
+      <x:c r="P45" s="2" t="s"/>
+      <x:c r="Q45" s="2" t="s"/>
+      <x:c r="R45" s="2" t="s"/>
+      <x:c r="S45" s="2" t="s"/>
+      <x:c r="T45" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS002_Lecture-35028.xlsx
+++ b/downloaded_files/GENS002_Lecture-35028.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -166,6 +166,15 @@
   </x:si>
   <x:si>
     <x:t>Rahma Khaled Abdelsattar Hamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240065</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد احمد محمد المغازى مخلوف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zyad Ahmed mohamed Almoghazy makhlouf</x:t>
   </x:si>
   <x:si>
     <x:t>1240071</x:t>
@@ -539,7 +548,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -839,7 +848,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T45"/>
+  <x:dimension ref="A1:T46"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1410,7 +1419,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45915.6438258912</x:v>
+        <x:v>45921.4960766551</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1442,7 +1451,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45915.009831169</x:v>
+        <x:v>45915.6438258912</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1470,9 +1479,11 @@
       <x:c r="C19" s="2" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s"/>
+      <x:c r="D19" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
       <x:c r="E19" s="3">
-        <x:v>45915.0072547801</x:v>
+        <x:v>45915.009831169</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1495,16 +1506,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="D20" s="2" t="s">
         <x:v>60</x:v>
       </x:c>
+      <x:c r="D20" s="2" t="s"/>
       <x:c r="E20" s="3">
-        <x:v>45915.6439986111</x:v>
+        <x:v>45915.0072547801</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1536,7 +1545,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45915.6433396991</x:v>
+        <x:v>45915.6439986111</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1568,7 +1577,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4145021991</x:v>
+        <x:v>45915.6433396991</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1600,7 +1609,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4160848032</x:v>
+        <x:v>45907.4145021991</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1632,7 +1641,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4146716435</x:v>
+        <x:v>45906.4160848032</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1664,7 +1673,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6644450579</x:v>
+        <x:v>45907.4146716435</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1696,7 +1705,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4144538194</x:v>
+        <x:v>45906.6644450579</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1728,7 +1737,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.8656453356</x:v>
+        <x:v>45907.4144538194</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1760,7 +1769,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4142003125</x:v>
+        <x:v>45906.8656453356</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1792,7 +1801,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4168692477</x:v>
+        <x:v>45906.4142003125</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1824,7 +1833,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45919.6302434375</x:v>
+        <x:v>45906.4168692477</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1856,7 +1865,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6660220255</x:v>
+        <x:v>45919.6302434375</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1888,7 +1897,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.5503096412</x:v>
+        <x:v>45906.6660220255</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1920,7 +1929,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.4146840278</x:v>
+        <x:v>45906.5503096412</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1952,7 +1961,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45915.0139236458</x:v>
+        <x:v>45906.4146840278</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1984,7 +1993,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.4157328704</x:v>
+        <x:v>45915.0139236458</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2016,7 +2025,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.6652256134</x:v>
+        <x:v>45906.4157328704</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2048,7 +2057,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.414850544</x:v>
+        <x:v>45906.6652256134</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2080,7 +2089,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45915.6440935185</x:v>
+        <x:v>45906.414850544</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2112,7 +2121,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.4321676736</x:v>
+        <x:v>45915.6440935185</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2144,7 +2153,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45915.0099014699</x:v>
+        <x:v>45906.4321676736</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2176,7 +2185,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.4143582176</x:v>
+        <x:v>45915.0099014699</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2208,7 +2217,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.6650042477</x:v>
+        <x:v>45906.4143582176</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2240,7 +2249,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.4150481481</x:v>
+        <x:v>45906.6650042477</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2272,7 +2281,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45915.0116396181</x:v>
+        <x:v>45906.4150481481</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2304,7 +2313,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45915.6443547801</x:v>
+        <x:v>45915.0116396181</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2321,6 +2330,38 @@
       <x:c r="R45" s="2" t="s"/>
       <x:c r="S45" s="2" t="s"/>
       <x:c r="T45" s="2" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:20">
+      <x:c r="A46" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="D46" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="E46" s="3">
+        <x:v>45915.6443547801</x:v>
+      </x:c>
+      <x:c r="F46" s="2" t="s"/>
+      <x:c r="G46" s="2" t="s"/>
+      <x:c r="H46" s="2" t="s"/>
+      <x:c r="I46" s="2" t="s"/>
+      <x:c r="J46" s="2" t="s"/>
+      <x:c r="K46" s="2" t="s"/>
+      <x:c r="L46" s="2" t="s"/>
+      <x:c r="M46" s="2" t="s"/>
+      <x:c r="N46" s="2" t="s"/>
+      <x:c r="O46" s="2" t="s"/>
+      <x:c r="P46" s="2" t="s"/>
+      <x:c r="Q46" s="2" t="s"/>
+      <x:c r="R46" s="2" t="s"/>
+      <x:c r="S46" s="2" t="s"/>
+      <x:c r="T46" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS002_Lecture-35028.xlsx
+++ b/downloaded_files/GENS002_Lecture-35028.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -226,6 +226,15 @@
   </x:si>
   <x:si>
     <x:t>ABDELRAHMAN AHMED IBRAHIM ABDELRAHMAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220066</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن محمد محمد مهدي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman mohamed mohamed mahdy</x:t>
   </x:si>
   <x:si>
     <x:t>1210105</x:t>
@@ -548,7 +557,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -848,7 +857,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T46"/>
+  <x:dimension ref="A1:T47"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1641,7 +1650,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4160848032</x:v>
+        <x:v>45930.3892311343</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1673,7 +1682,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4146716435</x:v>
+        <x:v>45906.4160848032</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1705,7 +1714,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6644450579</x:v>
+        <x:v>45907.4146716435</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1737,7 +1746,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4144538194</x:v>
+        <x:v>45906.6644450579</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1769,7 +1778,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.8656453356</x:v>
+        <x:v>45907.4144538194</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1801,7 +1810,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4142003125</x:v>
+        <x:v>45906.8656453356</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1833,7 +1842,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4168692477</x:v>
+        <x:v>45906.4142003125</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1865,7 +1874,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45919.6302434375</x:v>
+        <x:v>45906.4168692477</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1897,7 +1906,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6660220255</x:v>
+        <x:v>45919.6302434375</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1929,7 +1938,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.5503096412</x:v>
+        <x:v>45906.6660220255</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1961,7 +1970,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.4146840278</x:v>
+        <x:v>45906.5503096412</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1993,7 +2002,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45915.0139236458</x:v>
+        <x:v>45906.4146840278</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2025,7 +2034,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.4157328704</x:v>
+        <x:v>45915.0139236458</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2057,7 +2066,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.6652256134</x:v>
+        <x:v>45906.4157328704</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2089,7 +2098,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.414850544</x:v>
+        <x:v>45906.6652256134</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2121,7 +2130,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45915.6440935185</x:v>
+        <x:v>45906.414850544</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2153,7 +2162,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.4321676736</x:v>
+        <x:v>45915.6440935185</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2185,7 +2194,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45915.0099014699</x:v>
+        <x:v>45906.4321676736</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2217,7 +2226,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.4143582176</x:v>
+        <x:v>45915.0099014699</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2249,7 +2258,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.6650042477</x:v>
+        <x:v>45906.4143582176</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2281,7 +2290,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.4150481481</x:v>
+        <x:v>45906.6650042477</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2313,7 +2322,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45915.0116396181</x:v>
+        <x:v>45906.4150481481</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2345,7 +2354,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45915.6443547801</x:v>
+        <x:v>45915.0116396181</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2362,6 +2371,38 @@
       <x:c r="R46" s="2" t="s"/>
       <x:c r="S46" s="2" t="s"/>
       <x:c r="T46" s="2" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:20">
+      <x:c r="A47" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D47" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="E47" s="3">
+        <x:v>45915.6443547801</x:v>
+      </x:c>
+      <x:c r="F47" s="2" t="s"/>
+      <x:c r="G47" s="2" t="s"/>
+      <x:c r="H47" s="2" t="s"/>
+      <x:c r="I47" s="2" t="s"/>
+      <x:c r="J47" s="2" t="s"/>
+      <x:c r="K47" s="2" t="s"/>
+      <x:c r="L47" s="2" t="s"/>
+      <x:c r="M47" s="2" t="s"/>
+      <x:c r="N47" s="2" t="s"/>
+      <x:c r="O47" s="2" t="s"/>
+      <x:c r="P47" s="2" t="s"/>
+      <x:c r="Q47" s="2" t="s"/>
+      <x:c r="R47" s="2" t="s"/>
+      <x:c r="S47" s="2" t="s"/>
+      <x:c r="T47" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
